--- a/Forecasts_Validation/Validation_MAPE_MPE_per_window.xlsx
+++ b/Forecasts_Validation/Validation_MAPE_MPE_per_window.xlsx
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17.54272600219181</v>
+        <v>24.67994511226625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6681548178350835</v>
+        <v>17.86293778482562</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.19544020336797</v>
+        <v>31.34858884938234</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.066239793699034</v>
+        <v>20.02821228806083</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.59616196754891</v>
+        <v>31.48390539397182</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.049782187841767</v>
+        <v>18.98648460347131</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.40397619005197</v>
+        <v>31.97564787258361</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.834116114387577</v>
+        <v>20.10459691138336</v>
       </c>
     </row>
   </sheetData>
